--- a/results/mp/tinybert/corona/confidence/210/topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="123">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,331 +40,349 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
+    <t>killed</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>selfish</t>
+    <t>collapse</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>recession</t>
+    <t>war</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>war</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>sc</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
-    <t>stop</t>
+    <t>of</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t>on</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>&amp;</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>grocery</t>
+    <t>at</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
   <si>
     <t>it</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>'</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -722,7 +740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:Q92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,10 +748,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -794,10 +812,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -812,16 +830,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -833,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -841,13 +859,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -859,19 +877,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -883,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -891,13 +909,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -909,19 +927,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>0.8823529411764706</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -933,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -941,38 +959,38 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.92</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="L6">
         <v>23</v>
       </c>
-      <c r="D6">
+      <c r="M6">
         <v>23</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6">
-        <v>0.875</v>
-      </c>
-      <c r="L6">
-        <v>35</v>
-      </c>
-      <c r="M6">
-        <v>35</v>
-      </c>
       <c r="N6">
         <v>1</v>
       </c>
@@ -983,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -991,13 +1009,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1009,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1033,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1041,13 +1059,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.6678082191780822</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>195</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>195</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1059,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1083,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1091,13 +1109,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7402597402597403</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C9">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1109,19 +1127,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1133,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1141,13 +1159,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7272727272727273</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1159,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>0.8214285714285714</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1183,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1191,13 +1209,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7058823529411765</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1209,19 +1227,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>0.8148148148148148</v>
+        <v>0.7890625</v>
       </c>
       <c r="L11">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="M11">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1233,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1241,13 +1259,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6666666666666666</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1259,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.775</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="M12">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1283,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1291,13 +1309,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6666666666666666</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1309,19 +1327,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1333,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1341,13 +1359,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6363636363636364</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1359,19 +1377,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>0.7692307692307693</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1383,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1391,13 +1409,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6111111111111112</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1409,31 +1427,31 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>25</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L15">
+        <v>20</v>
+      </c>
+      <c r="M15">
+        <v>20</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>7</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L15">
-        <v>39</v>
-      </c>
-      <c r="M15">
-        <v>39</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1441,13 +1459,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5625</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1459,19 +1477,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>0.76</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1483,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1491,13 +1509,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5294117647058824</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1509,19 +1527,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1533,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1541,13 +1559,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5238095238095238</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1559,19 +1577,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>0.7272727272727273</v>
+        <v>0.7</v>
       </c>
       <c r="L18">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="M18">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1583,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1591,13 +1609,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.2655038759689923</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1609,19 +1627,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>379</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>0.7241379310344828</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1633,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1641,13 +1659,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1659,19 +1677,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K20">
-        <v>0.717948717948718</v>
+        <v>0.68</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1683,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1691,13 +1709,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.48068669527897</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="C21">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1709,19 +1727,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K21">
-        <v>0.6986301369863014</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="M21">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1733,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1741,13 +1759,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4444444444444444</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1759,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K22">
-        <v>0.6896551724137931</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L22">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="M22">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1783,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1791,13 +1809,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4210526315789473</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1809,19 +1827,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K23">
-        <v>0.6538461538461539</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1833,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1841,13 +1859,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4137931034482759</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1859,19 +1877,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K24">
-        <v>0.6470588235294118</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L24">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1883,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1891,13 +1909,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3684210526315789</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1909,19 +1927,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K25">
-        <v>0.6363636363636364</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L25">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1933,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1941,13 +1959,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3023255813953488</v>
+        <v>0.04825737265415549</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1959,19 +1977,19 @@
         <v>0</v>
       </c>
       <c r="H26">
+        <v>355</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="K26">
-        <v>0.631578947368421</v>
+        <v>0.5796344647519582</v>
       </c>
       <c r="L26">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="M26">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1983,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1991,37 +2009,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2875</v>
+        <v>0.005591397849462366</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>57</v>
+        <v>2312</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K27">
-        <v>0.6071428571428571</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L27">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2033,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2041,37 +2059,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2631578947368421</v>
+        <v>0.005395112662646779</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>28</v>
+        <v>3134</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K28">
-        <v>0.5868544600938967</v>
+        <v>0.5088235294117647</v>
       </c>
       <c r="L28">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="M28">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2083,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>88</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2091,37 +2109,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2592592592592592</v>
+        <v>0.004293262879788639</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>20</v>
+        <v>3015</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K29">
-        <v>0.5666666666666667</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2133,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2141,457 +2159,265 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.237037037037037</v>
+        <v>0.002581926514399206</v>
       </c>
       <c r="C30">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>103</v>
+        <v>5022</v>
       </c>
       <c r="J30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30">
+        <v>0.5050847457627119</v>
+      </c>
+      <c r="L30">
+        <v>149</v>
+      </c>
+      <c r="M30">
+        <v>149</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31">
+        <v>0.5</v>
+      </c>
+      <c r="L31">
+        <v>14</v>
+      </c>
+      <c r="M31">
+        <v>14</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="L32">
+        <v>22</v>
+      </c>
+      <c r="M32">
+        <v>22</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K33">
+        <v>0.4831460674157304</v>
+      </c>
+      <c r="L33">
+        <v>43</v>
+      </c>
+      <c r="M33">
+        <v>43</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34">
+        <v>0.4794520547945205</v>
+      </c>
+      <c r="L34">
+        <v>35</v>
+      </c>
+      <c r="M34">
+        <v>35</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="L35">
+        <v>13</v>
+      </c>
+      <c r="M35">
+        <v>13</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K36">
+        <v>0.4487179487179487</v>
+      </c>
+      <c r="L36">
+        <v>35</v>
+      </c>
+      <c r="M36">
+        <v>35</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K37">
+        <v>0.401673640167364</v>
+      </c>
+      <c r="L37">
+        <v>96</v>
+      </c>
+      <c r="M37">
+        <v>96</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K30">
-        <v>0.5503875968992248</v>
-      </c>
-      <c r="L30">
-        <v>71</v>
-      </c>
-      <c r="M30">
-        <v>71</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.175</v>
-      </c>
-      <c r="C31">
-        <v>7</v>
-      </c>
-      <c r="D31">
-        <v>7</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>33</v>
-      </c>
-      <c r="J31" s="1" t="s">
+      <c r="K38">
+        <v>0.375</v>
+      </c>
+      <c r="L38">
+        <v>15</v>
+      </c>
+      <c r="M38">
+        <v>15</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K31">
-        <v>0.55</v>
-      </c>
-      <c r="L31">
-        <v>11</v>
-      </c>
-      <c r="M31">
-        <v>11</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="C32">
-        <v>8</v>
-      </c>
-      <c r="D32">
-        <v>8</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>38</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K32">
-        <v>0.5347222222222222</v>
-      </c>
-      <c r="L32">
-        <v>77</v>
-      </c>
-      <c r="M32">
-        <v>77</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.1189189189189189</v>
-      </c>
-      <c r="C33">
-        <v>22</v>
-      </c>
-      <c r="D33">
-        <v>23</v>
-      </c>
-      <c r="E33">
-        <v>0.04</v>
-      </c>
-      <c r="F33">
-        <v>0.96</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>163</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K33">
-        <v>0.52</v>
-      </c>
-      <c r="L33">
-        <v>13</v>
-      </c>
-      <c r="M33">
-        <v>13</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.1181818181818182</v>
-      </c>
-      <c r="C34">
-        <v>13</v>
-      </c>
-      <c r="D34">
-        <v>13</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>97</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K34">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="L34">
-        <v>8</v>
-      </c>
-      <c r="M34">
-        <v>8</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.01483050847457627</v>
-      </c>
-      <c r="C35">
-        <v>7</v>
-      </c>
-      <c r="D35">
-        <v>17</v>
-      </c>
-      <c r="E35">
-        <v>0.59</v>
-      </c>
-      <c r="F35">
-        <v>0.41</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>465</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K35">
-        <v>0.45</v>
-      </c>
-      <c r="L35">
-        <v>9</v>
-      </c>
-      <c r="M35">
-        <v>9</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.01067235859124867</v>
-      </c>
-      <c r="C36">
-        <v>10</v>
-      </c>
-      <c r="D36">
-        <v>26</v>
-      </c>
-      <c r="E36">
-        <v>0.62</v>
-      </c>
-      <c r="F36">
-        <v>0.38</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>927</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K36">
-        <v>0.4456521739130435</v>
-      </c>
-      <c r="L36">
-        <v>41</v>
-      </c>
-      <c r="M36">
-        <v>41</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.006499535747446611</v>
-      </c>
-      <c r="C37">
-        <v>7</v>
-      </c>
-      <c r="D37">
-        <v>53</v>
-      </c>
-      <c r="E37">
-        <v>0.87</v>
-      </c>
-      <c r="F37">
-        <v>0.13</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>1070</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K37">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L37">
-        <v>15</v>
-      </c>
-      <c r="M37">
-        <v>15</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0.005821474773609315</v>
-      </c>
-      <c r="C38">
-        <v>9</v>
-      </c>
-      <c r="D38">
-        <v>27</v>
-      </c>
-      <c r="E38">
-        <v>0.67</v>
-      </c>
-      <c r="F38">
-        <v>0.33</v>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>1537</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K38">
-        <v>0.4090909090909091</v>
-      </c>
-      <c r="L38">
-        <v>9</v>
-      </c>
-      <c r="M38">
-        <v>9</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="K39">
-        <v>0.3783783783783784</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="L39">
         <v>14</v>
@@ -2609,229 +2435,229 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K40">
+        <v>0.3170731707317073</v>
+      </c>
+      <c r="L40">
+        <v>13</v>
+      </c>
+      <c r="M40">
+        <v>14</v>
+      </c>
+      <c r="N40">
+        <v>0.93</v>
+      </c>
+      <c r="O40">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K41">
+        <v>0.28125</v>
+      </c>
+      <c r="L41">
+        <v>18</v>
+      </c>
+      <c r="M41">
+        <v>18</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K42">
+        <v>0.2571428571428571</v>
+      </c>
+      <c r="L42">
+        <v>18</v>
+      </c>
+      <c r="M42">
+        <v>18</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K43">
+        <v>0.1805555555555556</v>
+      </c>
+      <c r="L43">
+        <v>13</v>
+      </c>
+      <c r="M43">
+        <v>13</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K44">
+        <v>0.146551724137931</v>
+      </c>
+      <c r="L44">
+        <v>17</v>
+      </c>
+      <c r="M44">
+        <v>17</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K45">
+        <v>0.1297709923664122</v>
+      </c>
+      <c r="L45">
+        <v>17</v>
+      </c>
+      <c r="M45">
+        <v>17</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K46">
+        <v>0.1042944785276074</v>
+      </c>
+      <c r="L46">
+        <v>17</v>
+      </c>
+      <c r="M46">
+        <v>17</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K47">
+        <v>0.09569377990430622</v>
+      </c>
+      <c r="L47">
+        <v>40</v>
+      </c>
+      <c r="M47">
+        <v>40</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K40">
-        <v>0.3478260869565217</v>
-      </c>
-      <c r="L40">
-        <v>8</v>
-      </c>
-      <c r="M40">
-        <v>8</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K41">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L41">
-        <v>8</v>
-      </c>
-      <c r="M41">
-        <v>8</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K42">
-        <v>0.32</v>
-      </c>
-      <c r="L42">
-        <v>8</v>
-      </c>
-      <c r="M42">
-        <v>8</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K43">
-        <v>0.28125</v>
-      </c>
-      <c r="L43">
-        <v>9</v>
-      </c>
-      <c r="M43">
-        <v>9</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K44">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="L44">
-        <v>10</v>
-      </c>
-      <c r="M44">
-        <v>10</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K45">
-        <v>0.1875</v>
-      </c>
-      <c r="L45">
-        <v>9</v>
-      </c>
-      <c r="M45">
-        <v>9</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K46">
-        <v>0.1509433962264151</v>
-      </c>
-      <c r="L46">
-        <v>8</v>
-      </c>
-      <c r="M46">
-        <v>9</v>
-      </c>
-      <c r="N46">
-        <v>0.89</v>
-      </c>
-      <c r="O46">
-        <v>0.11</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K47">
-        <v>0.103448275862069</v>
-      </c>
-      <c r="L47">
-        <v>9</v>
-      </c>
-      <c r="M47">
-        <v>9</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="K48">
-        <v>0.07804878048780488</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="L48">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M48">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2843,21 +2669,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K49">
-        <v>0.07575757575757576</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2869,21 +2695,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>183</v>
+        <v>385</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K50">
-        <v>0.07177033492822966</v>
+        <v>0.06952965235173825</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M50">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2895,47 +2721,47 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>194</v>
+        <v>455</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K51">
-        <v>0.06787330316742081</v>
+        <v>0.06764168190127971</v>
       </c>
       <c r="L51">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M51">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="N51">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>206</v>
+        <v>510</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="K52">
-        <v>0.05263157894736842</v>
+        <v>0.06152125279642058</v>
       </c>
       <c r="L52">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="M52">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2947,359 +2773,359 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>126</v>
+        <v>839</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="K53">
-        <v>0.04824561403508772</v>
+        <v>0.06015037593984962</v>
       </c>
       <c r="L53">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M53">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>434</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="K54">
-        <v>0.04784688995215311</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="L54">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N54">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K55">
-        <v>0.04466501240694789</v>
+        <v>0.05673758865248227</v>
       </c>
       <c r="L55">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="M55">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>385</v>
+        <v>931</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="K56">
-        <v>0.04153354632587859</v>
+        <v>0.05214723926380368</v>
       </c>
       <c r="L56">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M56">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N56">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O56">
-        <v>0.13</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>300</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="K57">
-        <v>0.04121863799283154</v>
+        <v>0.04429860541427399</v>
       </c>
       <c r="L57">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="M57">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="N57">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O57">
-        <v>0.13</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>1070</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="K58">
-        <v>0.03667745415318231</v>
+        <v>0.04420350291909925</v>
       </c>
       <c r="L58">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="M58">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="N58">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O58">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>893</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K59">
-        <v>0.03611738148984198</v>
+        <v>0.04215456674473068</v>
       </c>
       <c r="L59">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="M59">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="N59">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O59">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>427</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K60">
-        <v>0.03529411764705882</v>
+        <v>0.04179566563467492</v>
       </c>
       <c r="L60">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M60">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N60">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="O60">
-        <v>0.06000000000000005</v>
+        <v>0.13</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>410</v>
+        <v>619</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K61">
-        <v>0.02952029520295203</v>
+        <v>0.04031209362808843</v>
       </c>
       <c r="L61">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="M61">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="N61">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="O61">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>263</v>
+        <v>738</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K62">
-        <v>0.02877697841726619</v>
+        <v>0.03977272727272727</v>
       </c>
       <c r="L62">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="M62">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>810</v>
+        <v>845</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K63">
-        <v>0.02849002849002849</v>
+        <v>0.03874538745387454</v>
       </c>
       <c r="L63">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M63">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N63">
-        <v>0.77</v>
+        <v>0.91</v>
       </c>
       <c r="O63">
-        <v>0.23</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>341</v>
+        <v>521</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="K64">
-        <v>0.02105263157894737</v>
+        <v>0.03814262023217247</v>
       </c>
       <c r="L64">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M64">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N64">
-        <v>0.59</v>
+        <v>0.92</v>
       </c>
       <c r="O64">
-        <v>0.41</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>465</v>
+        <v>580</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K65">
-        <v>0.01964735516372796</v>
+        <v>0.03710691823899371</v>
       </c>
       <c r="L65">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="M65">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="N65">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O65">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>1946</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K66">
-        <v>0.01880877742946709</v>
+        <v>0.03678678678678678</v>
       </c>
       <c r="L66">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="M66">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="N66">
         <v>0.92</v>
@@ -3311,319 +3137,683 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>626</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K67">
-        <v>0.01851851851851852</v>
+        <v>0.03583815028901734</v>
       </c>
       <c r="L67">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="M67">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="N67">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O67">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>424</v>
+        <v>834</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K68">
-        <v>0.0178173719376392</v>
+        <v>0.03512396694214876</v>
       </c>
       <c r="L68">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M68">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>441</v>
+        <v>467</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K69">
-        <v>0.01723237597911227</v>
+        <v>0.03329633740288569</v>
       </c>
       <c r="L69">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M69">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N69">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>1882</v>
+        <v>871</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K70">
-        <v>0.01703940362087327</v>
+        <v>0.03288550230599559</v>
       </c>
       <c r="L70">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="M70">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>923</v>
+        <v>4823</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="K71">
-        <v>0.01696712619300106</v>
+        <v>0.02907488986784141</v>
       </c>
       <c r="L71">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M71">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="N71">
-        <v>0.62</v>
+        <v>0.87</v>
       </c>
       <c r="O71">
-        <v>0.38</v>
+        <v>0.13</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>927</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K72">
-        <v>0.01652892561983471</v>
+        <v>0.02622576966932725</v>
       </c>
       <c r="L72">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="M72">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N72">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="O72">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>476</v>
+        <v>854</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K73">
-        <v>0.01612903225806452</v>
+        <v>0.02571638501102131</v>
       </c>
       <c r="L73">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="M73">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>427</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K74">
-        <v>0.01444723618090452</v>
+        <v>0.02566096423017107</v>
       </c>
       <c r="L74">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M74">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N74">
-        <v>0.82</v>
+        <v>0.92</v>
       </c>
       <c r="O74">
-        <v>0.18</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>1569</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K75">
-        <v>0.01157556270096463</v>
+        <v>0.02553329023917259</v>
       </c>
       <c r="L75">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="M75">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="N75">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="O75">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>1537</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K76">
-        <v>0.01145475372279496</v>
+        <v>0.02541436464088398</v>
       </c>
       <c r="L76">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M76">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N76">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>863</v>
+        <v>882</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="K77">
-        <v>0.01032110091743119</v>
+        <v>0.02523291925465838</v>
       </c>
       <c r="L77">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="M77">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="N77">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="O77">
-        <v>0.09999999999999998</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>1726</v>
+        <v>5022</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K78">
+        <v>0.02411347517730496</v>
+      </c>
+      <c r="L78">
+        <v>17</v>
+      </c>
+      <c r="M78">
+        <v>20</v>
+      </c>
+      <c r="N78">
+        <v>0.85</v>
+      </c>
+      <c r="O78">
+        <v>0.15</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K79">
+        <v>0.0231839258114374</v>
+      </c>
+      <c r="L79">
+        <v>15</v>
+      </c>
+      <c r="M79">
+        <v>15</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K80">
+        <v>0.02282333051563821</v>
+      </c>
+      <c r="L80">
+        <v>54</v>
+      </c>
+      <c r="M80">
+        <v>67</v>
+      </c>
+      <c r="N80">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O80">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K81">
+        <v>0.02106481481481481</v>
+      </c>
+      <c r="L81">
+        <v>91</v>
+      </c>
+      <c r="M81">
+        <v>99</v>
+      </c>
+      <c r="N81">
+        <v>0.92</v>
+      </c>
+      <c r="O81">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K82">
+        <v>0.02094972067039106</v>
+      </c>
+      <c r="L82">
+        <v>15</v>
+      </c>
+      <c r="M82">
+        <v>19</v>
+      </c>
+      <c r="N82">
+        <v>0.79</v>
+      </c>
+      <c r="O82">
+        <v>0.21</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K83">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="L83">
+        <v>13</v>
+      </c>
+      <c r="M83">
+        <v>16</v>
+      </c>
+      <c r="N83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O83">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K84">
+        <v>0.02043478260869565</v>
+      </c>
+      <c r="L84">
+        <v>47</v>
+      </c>
+      <c r="M84">
+        <v>56</v>
+      </c>
+      <c r="N84">
+        <v>0.84</v>
+      </c>
+      <c r="O84">
+        <v>0.16</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K78">
-        <v>0.00906344410876133</v>
-      </c>
-      <c r="L78">
-        <v>9</v>
-      </c>
-      <c r="M78">
-        <v>10</v>
-      </c>
-      <c r="N78">
-        <v>0.9</v>
-      </c>
-      <c r="O78">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P78" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q78">
-        <v>984</v>
+      <c r="K85">
+        <v>0.01996927803379416</v>
+      </c>
+      <c r="L85">
+        <v>13</v>
+      </c>
+      <c r="M85">
+        <v>17</v>
+      </c>
+      <c r="N85">
+        <v>0.76</v>
+      </c>
+      <c r="O85">
+        <v>0.24</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K86">
+        <v>0.01950766372503484</v>
+      </c>
+      <c r="L86">
+        <v>42</v>
+      </c>
+      <c r="M86">
+        <v>47</v>
+      </c>
+      <c r="N86">
+        <v>0.89</v>
+      </c>
+      <c r="O86">
+        <v>0.11</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K87">
+        <v>0.01907630522088354</v>
+      </c>
+      <c r="L87">
+        <v>19</v>
+      </c>
+      <c r="M87">
+        <v>22</v>
+      </c>
+      <c r="N87">
+        <v>0.86</v>
+      </c>
+      <c r="O87">
+        <v>0.14</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K88">
+        <v>0.01828681424446583</v>
+      </c>
+      <c r="L88">
+        <v>19</v>
+      </c>
+      <c r="M88">
+        <v>20</v>
+      </c>
+      <c r="N88">
+        <v>0.95</v>
+      </c>
+      <c r="O88">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K89">
+        <v>0.01752190237797246</v>
+      </c>
+      <c r="L89">
+        <v>14</v>
+      </c>
+      <c r="M89">
+        <v>16</v>
+      </c>
+      <c r="N89">
+        <v>0.88</v>
+      </c>
+      <c r="O89">
+        <v>0.12</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K90">
+        <v>0.01672240802675585</v>
+      </c>
+      <c r="L90">
+        <v>40</v>
+      </c>
+      <c r="M90">
+        <v>42</v>
+      </c>
+      <c r="N90">
+        <v>0.95</v>
+      </c>
+      <c r="O90">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K91">
+        <v>0.0157035175879397</v>
+      </c>
+      <c r="L91">
+        <v>50</v>
+      </c>
+      <c r="M91">
+        <v>67</v>
+      </c>
+      <c r="N91">
+        <v>0.75</v>
+      </c>
+      <c r="O91">
+        <v>0.25</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K92">
+        <v>0.01379310344827586</v>
+      </c>
+      <c r="L92">
+        <v>16</v>
+      </c>
+      <c r="M92">
+        <v>17</v>
+      </c>
+      <c r="N92">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O92">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>1144</v>
       </c>
     </row>
   </sheetData>
